--- a/Documents techniques/Naomarks.xlsx
+++ b/Documents techniques/Naomarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bureau\Projet Nao\Nouveau dossier\Documents techniques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-clementlangue/Library/Mobile Documents/com~apple~CloudDocs/Cours/CIR3/Projet/Nao/ProjetNao/Documents techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B7057B-9A4A-41FD-9CAE-28036B352934}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C9526-F298-9E4E-BC47-9E0AA5C2BEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Général</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Guess sport</t>
   </si>
   <si>
-    <t>Aladin</t>
-  </si>
-  <si>
     <t>Macarena</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Color hunter</t>
   </si>
   <si>
-    <t>Astérix</t>
-  </si>
-  <si>
     <t>Electroswing</t>
   </si>
   <si>
@@ -100,66 +94,42 @@
     <t>3 mousquetaires</t>
   </si>
   <si>
-    <t>Cendrillon</t>
-  </si>
-  <si>
     <t>Calme 4</t>
   </si>
   <si>
     <t>The night before christmas</t>
   </si>
   <si>
-    <t>Frères des Ours</t>
-  </si>
-  <si>
     <t>Calme 5</t>
   </si>
   <si>
     <t>Samson dalila</t>
   </si>
   <si>
-    <t>Hercule</t>
-  </si>
-  <si>
     <t>Calme 6</t>
   </si>
   <si>
     <t>Lion et souris</t>
   </si>
   <si>
-    <t>Kendji Girac</t>
-  </si>
-  <si>
     <t>Chaperon rouge</t>
   </si>
   <si>
-    <t>La Belle et la Bête</t>
-  </si>
-  <si>
     <t>Soin 1</t>
   </si>
   <si>
     <t>Conte de Noël</t>
   </si>
   <si>
-    <t>La Petite Sirène</t>
-  </si>
-  <si>
     <t>Soin 2</t>
   </si>
   <si>
     <t>Le roi midas</t>
   </si>
   <si>
-    <t>La Planète au Trésors</t>
-  </si>
-  <si>
     <t>Soin 3</t>
   </si>
   <si>
-    <t>La Reine des Neiges</t>
-  </si>
-  <si>
     <t>Soin 4</t>
   </si>
   <si>
@@ -187,9 +157,6 @@
     <t>Soin 8</t>
   </si>
   <si>
-    <t>Mulan</t>
-  </si>
-  <si>
     <t>Energique 1</t>
   </si>
   <si>
@@ -199,9 +166,6 @@
     <t>Energique 2</t>
   </si>
   <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
     <t>Energique 3</t>
   </si>
   <si>
@@ -230,6 +194,60 @@
   </si>
   <si>
     <t>Retour</t>
+  </si>
+  <si>
+    <t>Pocahontas*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Astérix*</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Danse inexistante</t>
+  </si>
+  <si>
+    <t>Cendrillon.</t>
+  </si>
+  <si>
+    <t>Danse identique</t>
+  </si>
+  <si>
+    <t>Aladin*</t>
+  </si>
+  <si>
+    <t>Hercule*</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Danse validé</t>
+  </si>
+  <si>
+    <t>Frères des Ours_</t>
+  </si>
+  <si>
+    <t>Kendji Girac_</t>
+  </si>
+  <si>
+    <t>La Belle et la Bête*</t>
+  </si>
+  <si>
+    <t>La Petite Sirène*</t>
+  </si>
+  <si>
+    <t>La Planète au Trésors.</t>
+  </si>
+  <si>
+    <t>La Reine des Neiges.</t>
+  </si>
+  <si>
+    <t>Mulan*</t>
   </si>
 </sst>
 </file>
@@ -1233,595 +1251,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>64</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="40" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
         <v>68</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="B3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
         <v>80</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="B4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
         <v>84</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="B5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
         <v>85</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>107</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>108</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>109</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
-        <v>108</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="E9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
-        <v>109</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>112</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>114</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
-        <v>112</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
-        <v>114</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
-        <v>117</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>119</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
-        <v>119</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>124</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
-        <v>124</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>125</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
-        <v>125</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>127</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
-        <v>127</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>128</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
-        <v>128</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>130</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="38"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>130</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>131</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>131</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>136</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
-        <v>136</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>138</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="38"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="E21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
-        <v>138</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>141</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="E22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
-        <v>141</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>143</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="38"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="E23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
-        <v>143</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>146</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="E24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
-        <v>146</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>147</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="38"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="E25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
-        <v>147</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>148</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="E26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
-        <v>148</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>170</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>171</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>175</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>187</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
-        <v>170</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
-        <v>171</v>
-      </c>
-      <c r="C29" s="31" t="s">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="11" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
-        <v>175</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25">
-        <v>187</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="D17:D28"/>
-    <mergeCell ref="E10:E28"/>
-    <mergeCell ref="G10:G28"/>
-    <mergeCell ref="H8:H28"/>
-    <mergeCell ref="I3:I28"/>
-    <mergeCell ref="J3:J30"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="D9:D27"/>
+    <mergeCell ref="F9:F27"/>
+    <mergeCell ref="G7:G27"/>
+    <mergeCell ref="H2:H27"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
